--- a/REGULAR/GSO/LANDICHO, CHARLENE.xlsx
+++ b/REGULAR/GSO/LANDICHO, CHARLENE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-0-34)</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1251,12 +1254,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="L9" sqref="L8:L9"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1420,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.201999999999998</v>
+        <v>30.130999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2616,32 +2619,30 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D62" s="39"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39">
+        <v>7.1000000000000008E-2</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="49"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B63" s="20"/>
       <c r="C63" s="13">
         <v>1.25</v>
       </c>
@@ -2652,18 +2653,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H63" s="39">
-        <v>1</v>
-      </c>
+      <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="49">
-        <v>44825</v>
-      </c>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>45</v>
@@ -2684,47 +2681,47 @@
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="49">
-        <v>44859</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39">
-        <v>2</v>
-      </c>
+      <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H65" s="39"/>
+      <c r="H65" s="39">
+        <v>1</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20" t="s">
-        <v>61</v>
+      <c r="K65" s="49">
+        <v>44859</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
       <c r="D66" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
@@ -2735,20 +2732,28 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="39"/>
+      <c r="A67" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
@@ -2756,42 +2761,34 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A68" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="49">
-        <v>44950</v>
-      </c>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39">
-        <v>1</v>
-      </c>
+      <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -2802,12 +2799,12 @@
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="49">
-        <v>44988</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>51</v>
@@ -2828,18 +2825,22 @@
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
       <c r="K70" s="49">
-        <v>45016</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>1</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -2849,21 +2850,19 @@
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="49">
+        <v>45016</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B72" s="20"/>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39">
-        <v>1</v>
-      </c>
+      <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -2873,34 +2872,36 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="49">
-        <v>45054</v>
-      </c>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>45047</v>
+      </c>
       <c r="B73" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="39"/>
+        <v>51</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="39">
+        <v>1</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="49">
-        <v>45072</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>54</v>
       </c>
@@ -2916,14 +2917,16 @@
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
       <c r="K74" s="49">
-        <v>45084</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B75" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
@@ -2935,11 +2938,13 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="49">
+        <v>45084</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2957,7 +2962,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2975,7 +2980,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2993,7 +2998,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -3011,7 +3016,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -3029,7 +3034,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3047,7 +3052,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3065,7 +3070,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3083,7 +3088,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3101,7 +3106,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3119,7 +3124,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3137,7 +3142,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3155,7 +3160,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3173,7 +3178,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3191,7 +3196,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3209,7 +3214,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3227,7 +3232,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3245,7 +3250,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3263,7 +3268,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3281,7 +3286,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3299,7 +3304,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3317,7 +3322,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3335,7 +3340,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3353,7 +3358,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3371,7 +3376,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3389,7 +3394,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3407,7 +3412,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3425,7 +3430,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3443,7 +3448,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3461,7 +3466,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3479,7 +3484,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3497,7 +3502,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3515,7 +3520,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3533,7 +3538,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3551,7 +3556,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3569,7 +3574,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3587,7 +3592,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3605,7 +3610,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3623,7 +3628,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3641,7 +3646,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3659,7 +3664,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3677,7 +3682,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3695,7 +3700,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3713,7 +3718,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3731,7 +3736,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3749,7 +3754,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3767,7 +3772,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3785,7 +3790,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3803,7 +3808,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3821,7 +3826,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3839,7 +3844,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3857,7 +3862,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3875,7 +3880,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3893,7 +3898,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3911,7 +3916,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3929,39 +3934,57 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46813</v>
-      </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+        <v>46784</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
+        <v>46813</v>
+      </c>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
         <v>46844</v>
       </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="39"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4072,14 +4095,14 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
         <v>34</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.57099999999999995</v>
+        <v>7.1000000000000008E-2</v>
       </c>
       <c r="J3" s="47">
         <v>2</v>

--- a/REGULAR/GSO/LANDICHO, CHARLENE.xlsx
+++ b/REGULAR/GSO/LANDICHO, CHARLENE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>UT(0-0-34)</t>
+  </si>
+  <si>
+    <t>7/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -1257,9 +1260,9 @@
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="L9" sqref="L8:L9"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1423,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.130999999999997</v>
+        <v>32.631</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1430,7 +1433,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.207999999999998</v>
+        <v>41.707999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2927,13 +2930,15 @@
       <c r="B75" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -2946,19 +2951,27 @@
       <c r="A76" s="40">
         <v>45108</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="B76" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="39"/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="39">
+        <v>2</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">

--- a/REGULAR/GSO/LANDICHO, CHARLENE.xlsx
+++ b/REGULAR/GSO/LANDICHO, CHARLENE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1260,9 +1260,9 @@
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="L9" sqref="L8:L9"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1433,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.707999999999998</v>
+        <v>40.707999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2977,7 +2977,9 @@
       <c r="A77" s="40">
         <v>45139</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
@@ -2986,10 +2988,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H77" s="39"/>
+      <c r="H77" s="39">
+        <v>1</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="49">
+        <v>45152</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
